--- a/users_data/1275943662/ТестOzon.xlsx
+++ b/users_data/1275943662/ТестOzon.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\PycharmProjects\main_tg_bot\ozon_parser\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2F1E415-9B7B-4788-841B-914D8D29DB7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E06A8545-3ACB-4B08-B8CC-3CAB0E999B35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="4">
   <si>
     <t>Код ВБ</t>
   </si>
@@ -412,10 +412,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -460,10 +460,10 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="3">
-        <v>496533705</v>
+        <v>300290006</v>
       </c>
       <c r="B4">
-        <v>268021</v>
+        <v>268017</v>
       </c>
       <c r="C4" t="s">
         <v>3</v>
@@ -471,23 +471,12 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="3">
-        <v>300290006</v>
+        <v>317156522</v>
       </c>
       <c r="B5">
-        <v>268017</v>
+        <v>268020</v>
       </c>
       <c r="C5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="3">
-        <v>317156522</v>
-      </c>
-      <c r="B6">
-        <v>268020</v>
-      </c>
-      <c r="C6" t="s">
         <v>3</v>
       </c>
     </row>

--- a/users_data/1275943662/ТестOzon.xlsx
+++ b/users_data/1275943662/ТестOzon.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\PycharmProjects\main_tg_bot\ozon_parser\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E06A8545-3ACB-4B08-B8CC-3CAB0E999B35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2F1E415-9B7B-4788-841B-914D8D29DB7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="4">
   <si>
     <t>Код ВБ</t>
   </si>
@@ -412,10 +412,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -460,10 +460,10 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="3">
-        <v>300290006</v>
+        <v>496533705</v>
       </c>
       <c r="B4">
-        <v>268017</v>
+        <v>268021</v>
       </c>
       <c r="C4" t="s">
         <v>3</v>
@@ -471,12 +471,23 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="3">
+        <v>300290006</v>
+      </c>
+      <c r="B5">
+        <v>268017</v>
+      </c>
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3">
         <v>317156522</v>
       </c>
-      <c r="B5">
+      <c r="B6">
         <v>268020</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C6" t="s">
         <v>3</v>
       </c>
     </row>
